--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_end.xlsx
@@ -2104,7 +2104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  아무리 라이타니엔이라고 해도, 감염자가 온 동네를 휘젓고 다니게 둘 리가 없는데. 헌병은 뭘 하고 있는 거지? 왜 아무도 제재하지 않는 걸까?
+    <t xml:space="preserve">[name="폴리닉"]  아무리 라이타니아라고 해도, 감염자가 온 동네를 휘젓고 다니게 둘 리가 없는데. 헌병은 뭘 하고 있는 거지? 왜 아무도 제재하지 않는 걸까?
 </t>
   </si>
   <si>
@@ -2232,7 +2232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  아가씨라, 하하. 저들이 싸우는 모습을 보면, 자네도 여느 공무원처럼 라이타니엔 학교에 예술 과목이 쓸데없이 많은 것 아니냐고 따지게 될 걸세.
+    <t xml:space="preserve">[name="세버린"]  아가씨라, 하하. 저들이 싸우는 모습을 보면, 자네도 여느 공무원처럼 라이타니아 학교에 예술 과목이 쓸데없이 많은 것 아니냐고 따지게 될 걸세.
 </t>
   </si>
   <si>
@@ -2352,7 +2352,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  아트로 선생은 정말이지 훌륭한 사람이었네. 그녀는 라이타니엔 사람도 아닐뿐더러 우리와 아무런 연고도 없었지만, 누구보다 존경받을 만한 사람이었지.
+    <t xml:space="preserve">[name="세버린"]  아트로 선생은 정말이지 훌륭한 사람이었네. 그녀는 라이타니아 사람도 아닐뿐더러 우리와 아무런 연고도 없었지만, 누구보다 존경받을 만한 사람이었지.
 </t>
   </si>
   <si>
@@ -2376,7 +2376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  외지인 말일세. 모두 무장한 감염자들로 구성되어 있고, 라이타니엔 사람 외에 마족도 섞여 있더군.
+    <t xml:space="preserve">[name="세버린"]  외지인 말일세. 모두 무장한 감염자들로 구성되어 있고, 라이타니아 사람 외에 마족도 섞여 있더군.
 </t>
   </si>
   <si>
@@ -2400,7 +2400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  오랜 세월 동안 라이타니엔의 감염자가 보통 사람들과 평온하게 생활할 수 있었던 건, 거의 기적 같은 일이죠……
+    <t xml:space="preserve">[name="폴리닉"]  오랜 세월 동안 라이타니아의 감염자가 보통 사람들과 평온하게 생활할 수 있었던 건, 거의 기적 같은 일이죠……
 </t>
   </si>
   <si>
@@ -2424,7 +2424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  대열곡이 나타나기 전에 신문에서 본 적은 있네만, 대부분은 우르수스와 관련된 보도에 나왔고, 라이타니엔에서는 가끔씩 언급만 되는 정도였네.
+    <t xml:space="preserve">[name="세버린"]  대열곡이 나타나기 전에 신문에서 본 적은 있네만, 대부분은 우르수스와 관련된 보도에 나왔고, 라이타니아에서는 가끔씩 언급만 되는 정도였네.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_end.xlsx
@@ -1336,7 +1336,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Just “hold them accountable?”
+    <t xml:space="preserve">[name="Folinic"]  Just 'hold them accountable?'
 </t>
   </si>
   <si>
@@ -1344,7 +1344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Do you have anything at all to tell “a couple of tourists” then? “Schultz?”
+    <t xml:space="preserve">[name="Folinic"]  Do you have anything at all to tell 'a couple of tourists' then? 'Schultz?'
 </t>
   </si>
   <si>
@@ -1356,7 +1356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Usually, we go by “Operator.”
+    <t xml:space="preserve">[name="Folinic"]  Usually, we go by 'Operator.'
 </t>
   </si>
   <si>
@@ -1452,7 +1452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  The Infected rebels are acting really weird. And they keep talking about a “fire” and a “doctor,” right?
+    <t xml:space="preserve">[name="Folinic"]  The Infected rebels are acting really weird. And they keep talking about a 'fire' and a 'doctor,' right?
 </t>
   </si>
   <si>
@@ -1528,7 +1528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Where we come from, most people prefer not to use their real names at work. Just like “Atro.”
+    <t xml:space="preserve">[name="Folinic"]  Where we come from, most people prefer not to use their real names at work. Just like 'Atro.'
 </t>
   </si>
   <si>
@@ -1616,7 +1616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  The local Infected seem to know “Dr. Atro.” You’re stalling, and I’d prefer you not.
+    <t xml:space="preserve">[name="Folinic"]  The local Infected seem to know 'Dr. Atro.' You’re stalling, and I’d prefer you not.
 </t>
   </si>
   <si>
@@ -1640,11 +1640,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  We received the Infected doctor who called herself “Atro.” And we greatly appreciate her help caring for the many Infected residents of Wolumonde during this difficult time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  And you show your appreciation by telling us “she disappeared?”
+    <t xml:space="preserve">[name="Severin"]  We received the Infected doctor who called herself 'Atro.' And we greatly appreciate her help caring for the many Infected residents of Wolumonde during this difficult time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  And you show your appreciation by telling us 'she disappeared?'
 </t>
   </si>
   <si>
@@ -1708,7 +1708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  If I’m not going to talk lightly, all I can give you is “I’m very sorry.”
+    <t xml:space="preserve">[name="Severin"]  If I’m not going to talk lightly, all I can give you is 'I’m very sorry.'
 </t>
   </si>
   <si>
@@ -1740,7 +1740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  The term is “Sarkaz,” please. I hope the meaning of the word is not lost on you. Do you have any other information about the armed Infected?
+    <t xml:space="preserve">[name="Folinic"]  The term is 'Sarkaz,' please. I hope the meaning of the word is not lost on you. Do you have any other information about the armed Infected?
 </t>
   </si>
   <si>
@@ -1748,7 +1748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Oh? So why didn't they immediately show up to plunder the town? Why are they just "loitering" out there?
+    <t xml:space="preserve">[name="Folinic"]  Oh? So why didn't they immediately show up to plunder the town? Why are they just 'loitering' out there?
 </t>
   </si>
   <si>
@@ -1780,7 +1780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  For example... have you ever heard of the “Reunion Movement?”
+    <t xml:space="preserve">[name="Folinic"]  For example... have you ever heard of the 'Reunion Movement?'
 </t>
   </si>
   <si>
@@ -1812,7 +1812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  We may have to do some investigating around town. We need to find out what the deal with this “disappearance” is...
+    <t xml:space="preserve">[name="Folinic"]  We may have to do some investigating around town. We need to find out what the deal with this 'disappearance' is...
 </t>
   </si>
   <si>
@@ -1912,7 +1912,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  They’re “operators.” I only listen to “doctors.”
+    <t xml:space="preserve">[name="Severin"]  They’re 'operators.' I only listen to 'doctors.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_end.xlsx
@@ -1332,7 +1332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  That’s assault with a deadly weapon. You think you can just go back to your homes? You’ll get a knock on your door soon enough. The Gendarmerie will hold you accountable.
+    <t xml:space="preserve">[name="Severin"]  That's assault with a deadly weapon. You think you can just go back to your homes? You'll get a knock on your door soon enough. The Gendarmerie will hold you accountable.
 </t>
   </si>
   <si>
@@ -1340,7 +1340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I don’t have to explain our accountability processes to a couple of tourists.
+    <t xml:space="preserve">[name="Severin"]  I don't have to explain our accountability processes to a couple of tourists.
 </t>
   </si>
   <si>
@@ -1348,7 +1348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I do. You’re strong. Stronger than I’d expect a doctor to be. Impressive.
+    <t xml:space="preserve">[name="Severin"]  I do. You're strong. Stronger than I'd expect a doctor to be. Impressive.
 </t>
   </si>
   <si>
@@ -1364,7 +1364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  It’s not safe here. Let’s talk somewhere else.
+    <t xml:space="preserve">[name="Severin"]  It's not safe here. Let's talk somewhere else.
 </t>
   </si>
   <si>
@@ -1376,15 +1376,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Sorry I’m not much help in battle...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  It’s fine. You did your best. If I’d known what was happening in Wolumonde, I wouldn’t have brought you along.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Even if we’re just helping resolve some disputes, you’re too young to be dragged into—
+    <t xml:space="preserve">[name="Suzuran"]  Sorry I'm not much help in battle...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  It's fine. You did your best. If I'd known what was happening in Wolumonde, I wouldn't have brought you along.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Even if we're just helping resolve some disputes, you're too young to be dragged into—
 </t>
   </si>
   <si>
@@ -1392,15 +1392,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  —*Sigh* ...Fine, fine. Little Lisa’s all grown up now. Did you get hurt?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  No, I’m fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  But you were spacing out back there. What’s wrong?
+    <t xml:space="preserve">[name="Folinic"]  —*Sigh* ...Fine, fine. Little Lisa's all grown up now. Did you get hurt?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  No, I'm fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  But you were spacing out back there. What's wrong?
 </t>
   </si>
   <si>
@@ -1408,15 +1408,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Mm... It doesn’t seem that different from any other place.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  You’re right, it’s not that different. They have shops, cafés, ads for music halls and art salons...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  No one’s getting rounded up by guards and sent out to the tundra to die. They get to live pretty ordinary lives... You might even say they live well.
+    <t xml:space="preserve">[name="Suzuran"]  Mm... It doesn't seem that different from any other place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  You're right, it's not that different. They have shops, cafés, ads for music halls and art salons...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  No one's getting rounded up by guards and sent out to the tundra to die. They get to live pretty ordinary lives... You might even say they live well.
 </t>
   </si>
   <si>
@@ -1428,19 +1428,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  We’d be out of a job.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Wha?! I mean, that’s true, but I’d be really happy about it! E-even though I just became an operator...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I’m kidding... The fact that Infected can roam the streets freely only serves to underscore how special the situation in Wolumonde is.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  ...They’re hiding something from us.
+    <t xml:space="preserve">[name="Folinic"]  We'd be out of a job.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Wha?! I mean, that's true, but I'd be really happy about it! E-even though I just became an operator...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I'm kidding... The fact that Infected can roam the streets freely only serves to underscore how special the situation in Wolumonde is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  ...They're hiding something from us.
 </t>
   </si>
   <si>
@@ -1448,7 +1448,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Shh! Lower your voice! We’ll talk once the officer is gone!
+    <t xml:space="preserve">[name="Folinic"]  Shh! Lower your voice! We'll talk once the officer is gone!
 </t>
   </si>
   <si>
@@ -1456,15 +1456,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Add in that officer who definitely knows who we are, and who really doesn’t want to tell me anything about Atro...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  And I can’t shake the feeling that something rotten is brewing in this town.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Even Leithania wouldn’t go so far as to let the Infected riot in the streets. Where are the guards? Why isn’t anyone stopping them?
+    <t xml:space="preserve">[name="Folinic"]  Add in that officer who definitely knows who we are, and who really doesn't want to tell me anything about Atro...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  And I can't shake the feeling that something rotten is brewing in this town.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Even Leithania wouldn't go so far as to let the Infected riot in the streets. Where are the guards? Why isn't anyone stopping them?
 </t>
   </si>
   <si>
@@ -1472,23 +1472,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I’ve got a bad feeling about this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  M-maybe everyone’s just a little on edge? Considering what the town’s been through...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  ...I pray that’s all it is.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  I’m so sorry to have dragged you into all this just as you’ve arrived. It’s shameful...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Oh, don’t worry about it.
+    <t xml:space="preserve">[name="Folinic"]  I've got a bad feeling about this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  M-maybe everyone's just a little on edge? Considering what the town's been through...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  ...I pray that's all it is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  I'm so sorry to have dragged you into all this just as you've arrived. It's shameful...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Oh, don't worry about it.
 </t>
   </si>
   <si>
@@ -1500,15 +1500,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  But Uncle... Err, Schultz Severin is our town’s highest official.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  The middle-aged smoker who really doesn’t want to do his job? Too bad, but that irresponsible disregard for duty doesn’t exactly come off as mysterious.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  There’s a reason he is the way he is—
+    <t xml:space="preserve">[name="Tatjana"]  But Uncle... Err, Schultz Severin is our town's highest official.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  The middle-aged smoker who really doesn't want to do his job? Too bad, but that irresponsible disregard for duty doesn't exactly come off as mysterious.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  There's a reason he is the way he is—
 </t>
   </si>
   <si>
@@ -1536,11 +1536,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Seems you’re acquainted. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  Yes... Sorry. I know you have your doubts, but the Schultz will give you the answers you need. It’s not my place to say.
+    <t xml:space="preserve">[name="Folinic"]  Seems you're acquainted. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  Yes... Sorry. I know you have your doubts, but the Schultz will give you the answers you need. It's not my place to say.
 </t>
   </si>
   <si>
@@ -1560,11 +1560,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Councilor"]  I... I’ve put forward some unreasonable ideas, but you’re always free to reject them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  That’s a creative way to dodge responsibility. But you’ll get no comfort from me.
+    <t xml:space="preserve">[name="Councilor"]  I... I've put forward some unreasonable ideas, but you're always free to reject them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  That's a creative way to dodge responsibility. But you'll get no comfort from me.
 </t>
   </si>
   <si>
@@ -1572,19 +1572,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Councilor"]  I represent the people, but you’re the leader of Wolumonde. What does it matter if we’re happy or not?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  I don’t want to make things difficult. Especially when I’m hosting guests at the same time the Infected are stirring.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Councilor"]  *Sigh*... Put it away. You want to make a good impression on Rhodes Island. Now’s not the time to be lighting cigarettes or playing with crossbow bolts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  I think we’re well past any good impressions...
+    <t xml:space="preserve">[name="Councilor"]  I represent the people, but you're the leader of Wolumonde. What does it matter if we're happy or not?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  I don't want to make things difficult. Especially when I'm hosting guests at the same time the Infected are stirring.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Councilor"]  *Sigh*... Put it away. You want to make a good impression on Rhodes Island. Now's not the time to be lighting cigarettes or playing with crossbow bolts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  I think we're well past any good impressions...
 </t>
   </si>
   <si>
@@ -1592,19 +1592,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Young girls? Hah, wait until you see them fight. Then you’ll start wondering if Leithanien schools focus too much on the arts, just like those bureaucrats.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  Sirs, they’re here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Councilor"]  Ah, it’s the doctors from Rhodes Island! Welcome to Wolumonde! I am so sorry you had to get roped into our local affairs like that. Let us make it up to you with an evening—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Thank you for the offer, but we’re only here to establish Dr. Atro’s whereabouts. We don’t intend to stay long.
+    <t xml:space="preserve">[name="Severin"]  Young girls? Hah, wait until you see them fight. Then you'll start wondering if Leithanien schools focus too much on the arts, just like those bureaucrats.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  Sirs, they're here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Councilor"]  Ah, it's the doctors from Rhodes Island! Welcome to Wolumonde! I am so sorry you had to get roped into our local affairs like that. Let us make it up to you with an evening—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Thank you for the offer, but we're only here to establish Dr. Atro's whereabouts. We don't intend to stay long.
 </t>
   </si>
   <si>
@@ -1616,11 +1616,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  The local Infected seem to know 'Dr. Atro.' You’re stalling, and I’d prefer you not.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Councilor"]  Doctors, I’m very sorry, but things in Wolumonde are very complicated right now. We need some time to give your company a proper explanation, in order to guarantee—
+    <t xml:space="preserve">[name="Folinic"]  The local Infected seem to know 'Dr. Atro.' You're stalling, and I'd prefer you not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Councilor"]  Doctors, I'm very sorry, but things in Wolumonde are very complicated right now. We need some time to give your company a proper explanation, in order to guarantee—
 </t>
   </si>
   <si>
@@ -1636,7 +1636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  The truth is flippant. It’s simple. No need to sugar coat it. You’re angry now, but you’re not surprised. You already guessed it, didn’t you?
+    <t xml:space="preserve">[name="Severin"]  The truth is flippant. It's simple. No need to sugar coat it. You're angry now, but you're not surprised. You already guessed it, didn't you?
 </t>
   </si>
   <si>
@@ -1684,11 +1684,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I know what you’re thinking. But according to what we currently know, it seemed to be an accident.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Dr. Atro left town after that. And we don’t know where she went.
+    <t xml:space="preserve">[name="Severin"]  I know what you're thinking. But according to what we currently know, it seemed to be an accident.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Dr. Atro left town after that. And we don't know where she went.
 </t>
   </si>
   <si>
@@ -1700,23 +1700,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  We... We’ll investigate ourselves. But you tell us she just disappeared after a fire like that’s not going to upset us!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  ...I’m very sorry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  If I’m not going to talk lightly, all I can give you is 'I’m very sorry.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Dr. Atro is a good egg. She’s got no Leithanien blood. No connection to us at all, really. And yet she’s nobler than anybody around here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  And when the Catastrophe struck Wolumonde, she didn’t run away. She offered us help.
+    <t xml:space="preserve">[name="Suzuran"]  We... We'll investigate ourselves. But you tell us she just disappeared after a fire like that's not going to upset us!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  ...I'm very sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  If I'm not going to talk lightly, all I can give you is 'I'm very sorry.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Dr. Atro is a good egg. She's got no Leithanien blood. No connection to us at all, really. And yet she's nobler than anybody around here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  And when the Catastrophe struck Wolumonde, she didn't run away. She offered us help.
 </t>
   </si>
   <si>
@@ -1724,11 +1724,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  But after the fire, you saw it yourself, some of the Infected folks don’t have the same ideas.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Not that I blame them. The town’s cut off from the outside world. We’re short on supplies. And a gang of armed Infected are out there circling.
+    <t xml:space="preserve">[name="Severin"]  But after the fire, you saw it yourself, some of the Infected folks don't have the same ideas.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Not that I blame them. The town's cut off from the outside world. We're short on supplies. And a gang of armed Infected are out there circling.
 </t>
   </si>
   <si>
@@ -1744,7 +1744,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  They’re merely vultures waiting to pick our bones. And they’re not the first.
+    <t xml:space="preserve">[name="Severin"]  They're merely vultures waiting to pick our bones. And they're not the first.
 </t>
   </si>
   <si>
@@ -1756,15 +1756,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Wolumonde’s lack of sensitivity toward the Infected is understandable.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  After all, it’s a miracle Leithania was letting infected people live alongside non-infected people for so long—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  —But it’s also an opportunity for bad actors to take advantage of such leniency. 
+    <t xml:space="preserve">[name="Folinic"]  Wolumonde's lack of sensitivity toward the Infected is understandable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  After all, it's a miracle Leithania was letting infected people live alongside non-infected people for so long—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  —But it's also an opportunity for bad actors to take advantage of such leniency. 
 </t>
   </si>
   <si>
@@ -1772,11 +1772,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I told you, Rhodes Island isn’t just a bunch of doctors. We’re also experts at dealing with the Infected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  There are some areas... where I’d rather trust our own judgment.
+    <t xml:space="preserve">[name="Folinic"]  I told you, Rhodes Island isn't just a bunch of doctors. We're also experts at dealing with the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  There are some areas... where I'd rather trust our own judgment.
 </t>
   </si>
   <si>
@@ -1788,7 +1788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  But to a small tourist town, it doesn’t mean much. Folks around here would rather listen to the gossip from the next town over than official reports on faraway countries.
+    <t xml:space="preserve">[name="Severin"]  But to a small tourist town, it doesn't mean much. Folks around here would rather listen to the gossip from the next town over than official reports on faraway countries.
 </t>
   </si>
   <si>
@@ -1796,7 +1796,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  No, I don’t want to jump to conclusions. Let’s leave it there for now.
+    <t xml:space="preserve">[name="Folinic"]  No, I don't want to jump to conclusions. Let's leave it there for now.
 </t>
   </si>
   <si>
@@ -1804,11 +1804,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Speaking from experience, I don’t think your side of the story will have much influence on our mission.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  That’s too bad. But honestly, I didn’t expect much.
+    <t xml:space="preserve">[name="Folinic"]  Speaking from experience, I don't think your side of the story will have much influence on our mission.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  That's too bad. But honestly, I didn't expect much.
 </t>
   </si>
   <si>
@@ -1824,15 +1824,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I’ve no reason to argue with that face of yours.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  You can move about the town freely, as Dr. Atro’s associates. You are honored guests of Wolumonde.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Councilor"]  Ah! But of course! Please, make yourselves at home here. Upstairs is the Wolumonde government’s finest parlor.
+    <t xml:space="preserve">[name="Severin"]  I've no reason to argue with that face of yours.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  You can move about the town freely, as Dr. Atro's associates. You are honored guests of Wolumonde.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Councilor"]  Ah! But of course! Please, make yourselves at home here. Upstairs is the Wolumonde government's finest parlor.
 </t>
   </si>
   <si>
@@ -1848,7 +1848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  We’ll prepare the paperwork and notify the residents after the meeting. As you wish.
+    <t xml:space="preserve">[name="Severin"]  We'll prepare the paperwork and notify the residents after the meeting. As you wish.
 </t>
   </si>
   <si>
@@ -1856,7 +1856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Suzuran, let’s go.
+    <t xml:space="preserve">[name="Folinic"]  Suzuran, let's go.
 </t>
   </si>
   <si>
@@ -1888,7 +1888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Councilor"]  But... but, it wasn’t our fault. Shouldn’t they be after the damned Infected that caused the fire?!
+    <t xml:space="preserve">[name="Councilor"]  But... but, it wasn't our fault. Shouldn't they be after the damned Infected that caused the fire?!
 </t>
   </si>
   <si>
@@ -1896,11 +1896,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Councilor"]  But we can’t just take the blame either!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Councilor"]  We tolerated the Infected as much as we could, and how did they repay us? Ever since the Gendarmerie left, they’ve completely been running rampant!
+    <t xml:space="preserve">[name="Councilor"]  But we can't just take the blame either!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Councilor"]  We tolerated the Infected as much as we could, and how did they repay us? Ever since the Gendarmerie left, they've completely been running rampant!
 </t>
   </si>
   <si>
@@ -1908,11 +1908,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Councilor"]  The doctor’s right. You really should quit. You’ve got a long life ahead of you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  They’re 'operators.' I only listen to 'doctors.'
+    <t xml:space="preserve">[name="Councilor"]  The doctor's right. You really should quit. You've got a long life ahead of you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  They're 'operators.' I only listen to 'doctors.'
 </t>
   </si>
   <si>
@@ -1920,7 +1920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Tatjana, keep an eye on our guests. Make sure they don’t get into trouble.
+    <t xml:space="preserve">[name="Severin"]  Tatjana, keep an eye on our guests. Make sure they don't get into trouble.
 </t>
   </si>
   <si>
@@ -1936,19 +1936,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Do you know what Folinic’s expression of pain and anger reminded me of?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Councilor"]  Don’t keep me waiting.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Tatjana. It made me think of her. Why didn’t she show me a face like that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Thor was very nearly her husband. You’d think she’d be a little sad.
+    <t xml:space="preserve">[name="Severin"]  Do you know what Folinic's expression of pain and anger reminded me of?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Councilor"]  Don't keep me waiting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Tatjana. It made me think of her. Why didn't she show me a face like that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Thor was very nearly her husband. You'd think she'd be a little sad.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_end.xlsx
@@ -2104,7 +2104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  아무리 라이타니아라고 해도, 감염자가 온 동네를 휘젓고 다니게 둘 리가 없는데. 헌병은 뭘 하고 있는 거지? 왜 아무도 제재하지 않는 걸까?
+    <t xml:space="preserve">[name="폴리닉"]  아무리 라이타니엔이라고 해도, 감염자가 온 동네를 휘젓고 다니게 둘 리가 없는데. 헌병은 뭘 하고 있는 거지? 왜 아무도 제재하지 않는 걸까?
 </t>
   </si>
   <si>
@@ -2232,7 +2232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  아가씨라, 하하. 저들이 싸우는 모습을 보면, 자네도 여느 공무원처럼 라이타니아 학교에 예술 과목이 쓸데없이 많은 것 아니냐고 따지게 될 걸세.
+    <t xml:space="preserve">[name="세버린"]  아가씨라, 하하. 저들이 싸우는 모습을 보면, 자네도 여느 공무원처럼 라이타니엔 학교에 예술 과목이 쓸데없이 많은 것 아니냐고 따지게 될 걸세.
 </t>
   </si>
   <si>
@@ -2352,7 +2352,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  아트로 선생은 정말이지 훌륭한 사람이었네. 그녀는 라이타니아 사람도 아닐뿐더러 우리와 아무런 연고도 없었지만, 누구보다 존경받을 만한 사람이었지.
+    <t xml:space="preserve">[name="세버린"]  아트로 선생은 정말이지 훌륭한 사람이었네. 그녀는 라이타니엔 사람도 아닐뿐더러 우리와 아무런 연고도 없었지만, 누구보다 존경받을 만한 사람이었지.
 </t>
   </si>
   <si>
@@ -2376,7 +2376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  외지인 말일세. 모두 무장한 감염자들로 구성되어 있고, 라이타니아 사람 외에 마족도 섞여 있더군.
+    <t xml:space="preserve">[name="세버린"]  외지인 말일세. 모두 무장한 감염자들로 구성되어 있고, 라이타니엔 사람 외에 마족도 섞여 있더군.
 </t>
   </si>
   <si>
@@ -2400,7 +2400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  오랜 세월 동안 라이타니아의 감염자가 보통 사람들과 평온하게 생활할 수 있었던 건, 거의 기적 같은 일이죠……
+    <t xml:space="preserve">[name="폴리닉"]  오랜 세월 동안 라이타니엔의 감염자가 보통 사람들과 평온하게 생활할 수 있었던 건, 거의 기적 같은 일이죠……
 </t>
   </si>
   <si>
@@ -2424,7 +2424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  대열곡이 나타나기 전에 신문에서 본 적은 있네만, 대부분은 우르수스와 관련된 보도에 나왔고, 라이타니아에서는 가끔씩 언급만 되는 정도였네.
+    <t xml:space="preserve">[name="세버린"]  대열곡이 나타나기 전에 신문에서 본 적은 있네만, 대부분은 우르수스와 관련된 보도에 나왔고, 라이타니엔에서는 가끔씩 언급만 되는 정도였네.
 </t>
   </si>
   <si>
